--- a/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
+++ b/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="285">
   <si>
     <t>功能清单</t>
   </si>
@@ -637,10 +637,6 @@
   </si>
   <si>
     <t>评价列表</t>
-  </si>
-  <si>
-    <t>字段：用户名｜商品名称｜评价详情｜状态｜操作
-操作：回复｜忽略｜删除｜已回复｜已忽略</t>
   </si>
   <si>
     <t>会员管理</t>
@@ -883,19 +879,20 @@
   <si>
     <t>1项目经理，1美工，2前端，1数据库，1后端，1测试</t>
   </si>
+  <si>
+    <t>字段：用户名｜商品名称｜评价详情｜状态｜操作
+操作：回复｜忽略｜删除｜已回复｜已忽略</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,25 +905,29 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1" tint="0.149937437055574"/>
+      <color theme="1" tint="0.14990691854609822"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -934,6 +935,7 @@
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -941,166 +943,31 @@
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.349986266670736"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1121,13 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,204 +1006,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1593,281 +1280,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,21 +1303,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1903,17 +1315,179 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1927,32 +1501,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1966,172 +1543,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="00305496"/>
-      <color rgb="00F88E9D"/>
-      <color rgb="00FF0000"/>
+      <color rgb="FF305496"/>
+      <color rgb="FFF88E9D"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2143,7 +1568,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2165,7 +1590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2207,7 +1632,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2249,7 +1674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2291,7 +1716,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2567,23 +1992,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:G147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -2594,1766 +2019,1786 @@
     <col min="7" max="7" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.1" customHeight="1"/>
-    <row r="2" ht="45" customHeight="1" spans="2:7">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:7" ht="14.1" customHeight="1"/>
+    <row r="2" spans="2:7" ht="45" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1" spans="2:7">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:7" ht="24" customHeight="1">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="25.15" customHeight="1" spans="2:7">
-      <c r="B5" s="10">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="2:7" ht="25.15" customHeight="1">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="23.1" customHeight="1" spans="2:7">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12" t="s">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="23.1" customHeight="1">
+      <c r="B6" s="50"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="2:7">
-      <c r="B7" s="17" t="s">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="24" customHeight="1">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="2:7">
-      <c r="B8" s="10">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="2:7" ht="21" customHeight="1">
+      <c r="B8" s="49">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B9" s="50"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="2:7">
-      <c r="B10" s="17" t="s">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="24" customHeight="1">
+      <c r="B10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B11" s="10">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B11" s="49">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B12" s="50"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="10" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B13" s="50"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B14" s="50"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="12" t="s">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B15" s="50"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="12" t="s">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B16" s="50"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12" t="s">
+    <row r="17" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B17" s="50"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B18" s="10">
+    <row r="18" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B18" s="49">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+    <row r="19" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B19" s="50"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B20" s="50"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12" t="s">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B21" s="50"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12" t="s">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B22" s="50"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12" t="s">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B23" s="50"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="33" spans="2:7">
-      <c r="B24" s="14"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24" t="s">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:7" s="2" customFormat="1" ht="33">
+      <c r="B24" s="50"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B25" s="14"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="s">
+    <row r="25" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B25" s="50"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B26" s="14"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25" t="s">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B26" s="50"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B27" s="14"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25" t="s">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B27" s="50"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B28" s="14"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25" t="s">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B28" s="50"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B29" s="14"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25" t="s">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B29" s="50"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B30" s="24">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B30" s="51">
         <v>3</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25" t="s">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B31" s="51"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25" t="s">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B32" s="51"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25" t="s">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B33" s="51"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24" t="s">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B34" s="51"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="27" t="s">
+    <row r="35" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B35" s="51"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="13" t="s">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B36" s="51"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="13" t="s">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B37" s="51"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="13" t="s">
+    <row r="38" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B38" s="51"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="24" t="s">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B39" s="51"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="27" t="s">
+    <row r="40" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B40" s="52"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B41" s="24">
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B41" s="51">
         <v>4</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B42" s="24"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="24" t="s">
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B42" s="51"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="33" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B43" s="24"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="24" t="s">
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B43" s="51"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="34"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B44" s="24"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="24" t="s">
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B44" s="51"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="33" t="s">
+      <c r="E44" s="14"/>
+      <c r="F44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="34"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B45" s="37">
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B45" s="53">
         <v>4</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="12" t="s">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="12" t="s">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="10" t="s">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="12" t="s">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="12" t="s">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="12" t="s">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="10" t="s">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="12" t="s">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="12" t="s">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="12" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="12" t="s">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="10" t="s">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="12" t="s">
+    <row r="58" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="12" t="s">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="12" t="s">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="12" t="s">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="12" t="s">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="10" t="s">
+    <row r="63" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="12" t="s">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="10" t="s">
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13" t="s">
+      <c r="E65" s="5"/>
+      <c r="F65" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="12" t="s">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="22" t="s">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="22" t="s">
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="22" t="s">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13" t="s">
+      <c r="E69" s="5"/>
+      <c r="F69" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="22" t="s">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="22" t="s">
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13" t="s">
+      <c r="E71" s="5"/>
+      <c r="F71" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22" t="s">
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13" t="s">
+      <c r="E72" s="5"/>
+      <c r="F72" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="14.65" customHeight="1" spans="2:7">
-      <c r="B73" s="14"/>
-      <c r="C73" s="15" t="s">
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
+      <c r="B73" s="7"/>
+      <c r="C73" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13" t="s">
+      <c r="E73" s="5"/>
+      <c r="F73" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="14.65" customHeight="1" spans="2:7">
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="22" t="s">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
+      <c r="B74" s="7"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13" t="s">
+      <c r="E74" s="5"/>
+      <c r="F74" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="14.65" customHeight="1" spans="2:7">
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="22" t="s">
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
+      <c r="B75" s="7"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13" t="s">
+      <c r="E75" s="5"/>
+      <c r="F75" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B76" s="10">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B76" s="49">
         <v>5</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13" t="s">
+      <c r="E76" s="5"/>
+      <c r="F76" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="12" t="s">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B77" s="50"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13" t="s">
+      <c r="E77" s="5"/>
+      <c r="F77" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B78" s="22"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="12" t="s">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="2:7" s="2" customFormat="1" ht="16.5">
+      <c r="B78" s="54"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13" t="s">
+      <c r="E78" s="5"/>
+      <c r="F78" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" spans="2:7">
-      <c r="B79" s="17" t="s">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7" ht="16.5">
+      <c r="B79" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B80" s="10">
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="36"/>
+    </row>
+    <row r="80" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B80" s="49">
         <v>1</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="12" t="s">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B81" s="50"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="12" t="s">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B82" s="50"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13" t="s">
+      <c r="E82" s="5"/>
+      <c r="F82" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G82" s="13"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B83" s="10">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B83" s="49">
         <v>2</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="12" t="s">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B84" s="50"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F84" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="13"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="12" t="s">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B85" s="50"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="10" t="s">
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B86" s="50"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G86" s="13"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="12" t="s">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B87" s="50"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13" t="s">
+      <c r="E87" s="5"/>
+      <c r="F87" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="12" t="s">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B88" s="50"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B89" s="10">
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B89" s="49">
         <v>4</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="12" t="s">
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B90" s="50"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="12" t="s">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B91" s="50"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="12" t="s">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B92" s="50"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="12" t="s">
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B93" s="50"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="10" t="s">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B94" s="50"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="E94" s="40" t="s">
+      <c r="E94" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="F94" s="41"/>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="33" outlineLevel="1" spans="2:7">
-      <c r="B96" s="22"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="22" t="s">
+      <c r="F94" s="85"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B95" s="50"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="2:7" s="2" customFormat="1" ht="33" outlineLevel="1">
+      <c r="B96" s="54"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B97" s="49">
+        <v>5</v>
+      </c>
+      <c r="C97" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B97" s="10">
+      <c r="D97" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B98" s="50"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B99" s="50"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" s="2" customFormat="1" ht="132" outlineLevel="1">
+      <c r="B100" s="50"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7" s="2" customFormat="1" ht="66" outlineLevel="1">
+      <c r="B101" s="50"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B102" s="49">
+        <v>6</v>
+      </c>
+      <c r="C102" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B103" s="54"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B104" s="49">
+        <v>7</v>
+      </c>
+      <c r="C104" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B105" s="50"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B106" s="50"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B107" s="50"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B108" s="50"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B109" s="50"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B110" s="50"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B111" s="50"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B112" s="50"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B113" s="5">
+        <v>8</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" s="18"/>
+      <c r="F113" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B114" s="49">
+        <v>9</v>
+      </c>
+      <c r="C114" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B115" s="50"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F115" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B116" s="50"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B117" s="50"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F117" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" ht="16.5">
+      <c r="B118" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="36"/>
+    </row>
+    <row r="119" spans="2:7" ht="21" customHeight="1">
+      <c r="B119" s="49">
         <v>5</v>
       </c>
-      <c r="C97" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G97" s="13"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B98" s="14"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B99" s="14"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G99" s="13"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="132" outlineLevel="1" spans="2:7">
-      <c r="B100" s="14"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G100" s="13"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="66" outlineLevel="1" spans="2:7">
-      <c r="B101" s="14"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G101" s="13"/>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B102" s="10">
+      <c r="C119" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="18"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="21" customHeight="1">
+      <c r="B120" s="50"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" s="18"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B121" s="50"/>
+      <c r="C121" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E121" s="18"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B122" s="50"/>
+      <c r="C122" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E122" s="18"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B123" s="50"/>
+      <c r="C123" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="26.1" customHeight="1">
+      <c r="B124" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="39"/>
+    </row>
+    <row r="125" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B125" s="49">
         <v>6</v>
       </c>
-      <c r="C102" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="E102" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G102" s="13"/>
-    </row>
-    <row r="103" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B103" s="22"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B104" s="10">
-        <v>7</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G104" s="13"/>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="E107" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G107" s="21"/>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G108" s="21"/>
-    </row>
-    <row r="109" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="E109" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G109" s="21"/>
-    </row>
-    <row r="110" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G110" s="21"/>
-    </row>
-    <row r="111" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="G111" s="21"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G112" s="21"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B113" s="12">
-        <v>8</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E113" s="44"/>
-      <c r="F113" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B114" s="10">
-        <v>9</v>
-      </c>
-      <c r="C114" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="E114" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B115" s="14"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B116" s="14"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E116" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="16.5" outlineLevel="1" spans="2:7">
-      <c r="B117" s="14"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" spans="2:7">
-      <c r="B118" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" ht="21" customHeight="1" spans="2:7">
-      <c r="B119" s="10">
-        <v>5</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="44"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="120" ht="21" customHeight="1" spans="2:7">
-      <c r="B120" s="14"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E120" s="44"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B121" s="14"/>
-      <c r="C121" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D121" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="E121" s="44"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="122" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B122" s="14"/>
-      <c r="C122" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="D122" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="E122" s="44"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="123" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B123" s="14"/>
-      <c r="C123" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D123" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="E123" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" ht="26.1" customHeight="1" spans="2:7">
-      <c r="B124" s="53" t="s">
+      <c r="C125" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="55"/>
-    </row>
-    <row r="125" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B125" s="10">
-        <v>6</v>
-      </c>
-      <c r="C125" s="45" t="s">
+      <c r="D125" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="E125" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="E125" s="56" t="s">
+      <c r="F125" s="41"/>
+      <c r="G125" s="42"/>
+    </row>
+    <row r="126" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B126" s="50"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="58"/>
-    </row>
-    <row r="126" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B126" s="14"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="44" t="s">
+      <c r="E126" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="E126" s="56" t="s">
+      <c r="F126" s="41"/>
+      <c r="G126" s="42"/>
+    </row>
+    <row r="127" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B127" s="50"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="F126" s="57"/>
-      <c r="G126" s="58"/>
-    </row>
-    <row r="127" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B127" s="14"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="44" t="s">
+      <c r="E127" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="E127" s="56" t="s">
+      <c r="F127" s="41"/>
+      <c r="G127" s="42"/>
+    </row>
+    <row r="128" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B128" s="50"/>
+      <c r="C128" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="F127" s="57"/>
-      <c r="G127" s="58"/>
-    </row>
-    <row r="128" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B128" s="14"/>
-      <c r="C128" s="45" t="s">
+      <c r="D128" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="44" t="s">
+      <c r="E128" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="E128" s="56" t="s">
+      <c r="F128" s="41"/>
+      <c r="G128" s="42"/>
+    </row>
+    <row r="129" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B129" s="50"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F128" s="57"/>
-      <c r="G128" s="58"/>
-    </row>
-    <row r="129" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B129" s="14"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="47" t="s">
+      <c r="E129" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="E129" s="59" t="s">
+      <c r="F129" s="44"/>
+      <c r="G129" s="45"/>
+    </row>
+    <row r="130" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B130" s="49"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F129" s="60"/>
-      <c r="G129" s="61"/>
-    </row>
-    <row r="130" ht="22.15" customHeight="1" spans="2:7">
-      <c r="B130" s="10"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="44" t="s">
+      <c r="E130" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="E130" s="56" t="s">
+      <c r="F130" s="41"/>
+      <c r="G130" s="42"/>
+    </row>
+    <row r="131" spans="2:7" ht="10.15" customHeight="1">
+      <c r="B131" s="22"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="25"/>
+    </row>
+    <row r="132" spans="2:7" ht="30" customHeight="1">
+      <c r="B132" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="F130" s="57"/>
-      <c r="G130" s="58"/>
-    </row>
-    <row r="131" ht="10.15" customHeight="1" spans="2:7">
-      <c r="B131" s="62"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="65"/>
-    </row>
-    <row r="132" ht="30" customHeight="1" spans="2:7">
-      <c r="B132" s="66" t="s">
+      <c r="C132" s="76"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C132" s="67"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="52" t="s">
+      <c r="F132" s="26"/>
+      <c r="G132" s="27"/>
+    </row>
+    <row r="133" spans="2:7" ht="30" customHeight="1">
+      <c r="B133" s="78"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F132" s="69"/>
-      <c r="G132" s="70"/>
-    </row>
-    <row r="133" ht="30" customHeight="1" spans="2:7">
-      <c r="B133" s="71"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="52" t="s">
+      <c r="F133" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="F133" s="69" t="s">
+      <c r="G133" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G133" s="12" t="s">
+    </row>
+    <row r="134" spans="2:7" ht="30" customHeight="1">
+      <c r="B134" s="81"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="83"/>
+      <c r="E134" s="21" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="134" ht="30" customHeight="1" spans="2:7">
-      <c r="B134" s="74"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="52" t="s">
+      <c r="F134" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="F134" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="G134" s="78"/>
-    </row>
-    <row r="146" ht="27.95" customHeight="1" spans="3:7">
-      <c r="C146" s="79"/>
-      <c r="D146" s="79"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="79"/>
-    </row>
-    <row r="147" ht="27.95" customHeight="1" spans="3:7">
-      <c r="C147" s="79"/>
-      <c r="D147" s="79"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
-      <c r="G147" s="79"/>
+      <c r="G134" s="47"/>
+    </row>
+    <row r="146" spans="3:7" ht="27.95" customHeight="1">
+      <c r="C146" s="48"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+    </row>
+    <row r="147" spans="3:7" ht="27.95" customHeight="1">
+      <c r="C147" s="48"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B132:D134"/>
+    <mergeCell ref="E94:F95"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C103"/>
     <mergeCell ref="C147:G147"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
@@ -4370,8 +3815,23 @@
     <mergeCell ref="B102:B103"/>
     <mergeCell ref="B104:B112"/>
     <mergeCell ref="B114:B117"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
     <mergeCell ref="B119:B123"/>
     <mergeCell ref="B125:B130"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B79:G79"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C11:C17"/>
@@ -4381,57 +3841,21 @@
     <mergeCell ref="C45:C72"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B132:D134"/>
-    <mergeCell ref="E94:F95"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4441,9 +3865,9 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
+++ b/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="12690"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="300">
   <si>
     <t>功能清单</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>宫格式菜单</t>
-  </si>
-  <si>
-    <t>商品管理、订单管理、会员管理、营销管理、商城管理、财务管理、统计报表；</t>
   </si>
   <si>
     <t>商品管理</t>
@@ -882,6 +879,70 @@
   <si>
     <t>字段：用户名｜商品名称｜评价详情｜状态｜操作
 操作：回复｜忽略｜删除｜已回复｜已忽略</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理、订单管理、会员管理、营销管理、商城管理、财务管理、统计报表；</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类（添加，修改，删除）|商品标签（添加，修改，删除）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单统计信息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表管理（筛选）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单评价管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表（筛选，排序，搜索，分页，添加、修改、删除商品）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员列表管理（筛选，排序，搜索，分页，添加，删除，修改）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单会员详细统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab销售额统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab订单统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息列表（分页，分类）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本编辑器修改，添加</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab（折扣，优惠券，搜索框关键词，广告，邀请码等）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1363,6 +1424,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,13 +1454,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,46 +1517,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,6 +1535,69 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,63 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,8 +2065,8 @@
   <dimension ref="B1:G147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2021,14 +2082,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.1" customHeight="1"/>
     <row r="2" spans="2:7" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" ht="22.15" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -2051,20 +2112,20 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="25.15" customHeight="1">
       <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2079,8 +2140,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="23.1" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2093,20 +2154,20 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" ht="21" customHeight="1">
       <c r="B8" s="49">
         <v>2</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2121,8 +2182,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2135,20 +2196,20 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B11" s="49">
         <v>1</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2161,8 +2222,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B12" s="50"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2173,8 +2234,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B13" s="50"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="49" t="s">
         <v>26</v>
       </c>
@@ -2187,9 +2248,9 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B14" s="50"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -2199,9 +2260,9 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B15" s="50"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
@@ -2211,8 +2272,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B16" s="50"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2225,8 +2286,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B17" s="50"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2242,7 +2303,7 @@
       <c r="B18" s="49">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -2259,9 +2320,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B19" s="50"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
@@ -2271,9 +2332,9 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B20" s="50"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
@@ -2283,9 +2344,9 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B21" s="50"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2295,9 +2356,9 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B22" s="50"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2307,9 +2368,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B23" s="50"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
@@ -2319,9 +2380,9 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" s="2" customFormat="1" ht="33">
-      <c r="B24" s="50"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="51" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2335,9 +2396,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B25" s="50"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
@@ -2347,9 +2408,9 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B26" s="50"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="13" t="s">
         <v>60</v>
       </c>
@@ -2359,9 +2420,9 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B27" s="50"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="13" t="s">
         <v>62</v>
       </c>
@@ -2371,9 +2432,9 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B28" s="50"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="13" t="s">
         <v>64</v>
       </c>
@@ -2383,9 +2444,9 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B29" s="50"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="13" t="s">
         <v>66</v>
       </c>
@@ -2395,13 +2456,13 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B30" s="51">
+      <c r="B30" s="59">
         <v>3</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="59" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -2413,9 +2474,9 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B31" s="51"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="13" t="s">
         <v>71</v>
       </c>
@@ -2425,9 +2486,9 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B32" s="51"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="13" t="s">
         <v>73</v>
       </c>
@@ -2437,9 +2498,9 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B33" s="51"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="13" t="s">
         <v>75</v>
       </c>
@@ -2449,9 +2510,9 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B34" s="51"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="51" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="59" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -2465,10 +2526,10 @@
       </c>
     </row>
     <row r="35" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B35" s="51"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="70" t="s">
+      <c r="B35" s="59"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="68" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2477,20 +2538,20 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B36" s="51"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="71"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B37" s="51"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="71"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2499,19 +2560,19 @@
       </c>
     </row>
     <row r="38" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B38" s="51"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="72"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B39" s="51"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="51" t="s">
+      <c r="B39" s="59"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="59" t="s">
         <v>87</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -2520,27 +2581,27 @@
       <c r="F39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B40" s="52"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="74"/>
+      <c r="G40" s="72"/>
     </row>
     <row r="41" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B41" s="51">
+      <c r="B41" s="59">
         <v>4</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="42" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -2553,8 +2614,8 @@
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B42" s="51"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="12" t="s">
         <v>94</v>
       </c>
@@ -2565,8 +2626,8 @@
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B43" s="51"/>
-      <c r="C43" s="60"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="12" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2638,8 @@
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B44" s="51"/>
-      <c r="C44" s="61"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="12" t="s">
         <v>97</v>
       </c>
@@ -2589,13 +2650,13 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B45" s="53">
+      <c r="B45" s="45">
         <v>4</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="46" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2607,9 +2668,9 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="5" t="s">
         <v>103</v>
       </c>
@@ -2619,9 +2680,9 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="54"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="5" t="s">
         <v>105</v>
       </c>
@@ -2631,8 +2692,8 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="49" t="s">
         <v>107</v>
       </c>
@@ -2645,9 +2706,9 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="5" t="s">
         <v>78</v>
       </c>
@@ -2657,9 +2718,9 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="5" t="s">
         <v>110</v>
       </c>
@@ -2669,9 +2730,9 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="54"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="5" t="s">
         <v>112</v>
       </c>
@@ -2681,8 +2742,8 @@
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="49" t="s">
         <v>114</v>
       </c>
@@ -2695,9 +2756,9 @@
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
@@ -2707,9 +2768,9 @@
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="5" t="s">
         <v>119</v>
       </c>
@@ -2717,9 +2778,9 @@
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="5" t="s">
         <v>120</v>
       </c>
@@ -2729,9 +2790,9 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="5" t="s">
         <v>122</v>
       </c>
@@ -2741,8 +2802,8 @@
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="49" t="s">
         <v>124</v>
       </c>
@@ -2757,9 +2818,9 @@
       </c>
     </row>
     <row r="58" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="5" t="s">
         <v>128</v>
       </c>
@@ -2769,9 +2830,9 @@
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="5" t="s">
         <v>130</v>
       </c>
@@ -2781,9 +2842,9 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="5" t="s">
         <v>132</v>
       </c>
@@ -2793,9 +2854,9 @@
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="5" t="s">
         <v>134</v>
       </c>
@@ -2805,9 +2866,9 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="54"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="5" t="s">
         <v>136</v>
       </c>
@@ -2819,8 +2880,8 @@
       </c>
     </row>
     <row r="63" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="49" t="s">
         <v>99</v>
       </c>
@@ -2833,9 +2894,9 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="54"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="5" t="s">
         <v>141</v>
       </c>
@@ -2845,8 +2906,8 @@
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="49" t="s">
         <v>143</v>
       </c>
@@ -2857,9 +2918,9 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="54"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="5" t="s">
         <v>145</v>
       </c>
@@ -2869,8 +2930,8 @@
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="11" t="s">
         <v>147</v>
       </c>
@@ -2881,8 +2942,8 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="11" t="s">
         <v>149</v>
       </c>
@@ -2893,8 +2954,8 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="11" t="s">
         <v>151</v>
       </c>
@@ -2905,8 +2966,8 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="11" t="s">
         <v>153</v>
       </c>
@@ -2915,8 +2976,8 @@
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="11" t="s">
         <v>154</v>
       </c>
@@ -2927,8 +2988,8 @@
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="11" t="s">
         <v>156</v>
       </c>
@@ -2940,7 +3001,7 @@
     </row>
     <row r="73" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B73" s="7"/>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -2954,7 +3015,7 @@
     </row>
     <row r="74" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B74" s="7"/>
-      <c r="C74" s="56"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="11" t="s">
         <v>161</v>
       </c>
@@ -2966,7 +3027,7 @@
     </row>
     <row r="75" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B75" s="7"/>
-      <c r="C75" s="56"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="11" t="s">
         <v>163</v>
       </c>
@@ -2980,7 +3041,7 @@
       <c r="B76" s="49">
         <v>5</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="38" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -2993,8 +3054,8 @@
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B77" s="50"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="5" t="s">
         <v>167</v>
       </c>
@@ -3005,8 +3066,8 @@
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B78" s="54"/>
-      <c r="C78" s="62"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="5" t="s">
         <v>169</v>
       </c>
@@ -3017,20 +3078,20 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="2:7" ht="16.5">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="37"/>
     </row>
     <row r="80" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="B80" s="49">
         <v>1</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="38" t="s">
         <v>172</v>
       </c>
       <c r="D80" s="49" t="s">
@@ -3045,9 +3106,9 @@
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B81" s="50"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="50"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="46"/>
       <c r="E81" s="5" t="s">
         <v>176</v>
       </c>
@@ -3057,14 +3118,14 @@
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B82" s="50"/>
-      <c r="C82" s="56"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -3072,78 +3133,84 @@
       <c r="B83" s="49">
         <v>2</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="49" t="s">
         <v>180</v>
-      </c>
-      <c r="D83" s="49" t="s">
-        <v>181</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B84" s="46"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B84" s="50"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="G84" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B85" s="46"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B85" s="50"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="86" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B86" s="50"/>
-      <c r="C86" s="56"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B87" s="46"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B87" s="50"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B88" s="46"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B88" s="50"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -3152,163 +3219,177 @@
       <c r="B89" s="49">
         <v>4</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="E89" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="F89" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="G89" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B90" s="46"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B90" s="50"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B91" s="46"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B91" s="50"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B92" s="46"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B92" s="50"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B93" s="46"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B93" s="50"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B94" s="46"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B94" s="50"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="49" t="s">
+      <c r="E94" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="E94" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="F94" s="85"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="95" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B95" s="50"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="87"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="85"/>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="2:7" s="2" customFormat="1" ht="33" outlineLevel="1">
-      <c r="B96" s="54"/>
-      <c r="C96" s="62"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="48"/>
       <c r="D96" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F96" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="97" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="B97" s="49">
         <v>5</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="E97" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="F97" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="98" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B98" s="50"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="50"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="46"/>
       <c r="E98" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G98" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="99" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B99" s="50"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="50"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="46"/>
       <c r="E99" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F99" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" s="2" customFormat="1" ht="132" outlineLevel="1">
+      <c r="B100" s="46"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="2:7" s="2" customFormat="1" ht="132" outlineLevel="1">
-      <c r="B100" s="50"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="49" t="s">
+      <c r="F100" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" s="2" customFormat="1" ht="66" outlineLevel="1">
+      <c r="B101" s="46"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="2:7" s="2" customFormat="1" ht="66" outlineLevel="1">
-      <c r="B101" s="50"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -3316,29 +3397,31 @@
       <c r="B102" s="49">
         <v>6</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C102" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="E102" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="F102" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B103" s="47"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B103" s="54"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -3346,117 +3429,121 @@
       <c r="B104" s="49">
         <v>7</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="18" t="s">
+      <c r="F104" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B105" s="46"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B105" s="50"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="106" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B106" s="50"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="69"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="88"/>
       <c r="E106" s="5" t="s">
         <v>169</v>
       </c>
       <c r="F106" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B107" s="46"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B107" s="50"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="67" t="s">
+      <c r="E107" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="F107" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B108" s="46"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B108" s="50"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="18" t="s">
+      <c r="F108" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B109" s="46"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B109" s="50"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="67" t="s">
+      <c r="E109" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="F109" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B110" s="46"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B110" s="50"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="18" t="s">
+      <c r="F110" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B111" s="46"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B111" s="50"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="18" t="s">
+      <c r="F111" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B112" s="46"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B112" s="50"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="18" t="s">
+      <c r="F112" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="G112" s="10"/>
     </row>
@@ -3465,14 +3552,14 @@
         <v>8</v>
       </c>
       <c r="C113" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="E113" s="18"/>
+      <c r="F113" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="88" t="s">
-        <v>243</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -3480,74 +3567,78 @@
       <c r="B114" s="49">
         <v>9</v>
       </c>
-      <c r="C114" s="63" t="s">
+      <c r="C114" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="86" t="s">
         <v>244</v>
-      </c>
-      <c r="D114" s="67" t="s">
-        <v>245</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F114" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B115" s="46"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="88"/>
+      <c r="E115" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B115" s="50"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="18" t="s">
+      <c r="F115" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F115" s="88" t="s">
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B116" s="46"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="86" t="s">
         <v>248</v>
-      </c>
-      <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B116" s="50"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="67" t="s">
-        <v>249</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F116" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B117" s="46"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="88"/>
+      <c r="E117" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B117" s="50"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F117" s="88" t="s">
+      <c r="F117" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" ht="16.5">
+      <c r="B118" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="2:7" ht="16.5">
-      <c r="B118" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="37"/>
     </row>
     <row r="119" spans="2:7" ht="21" customHeight="1">
       <c r="B119" s="49">
         <v>5</v>
       </c>
-      <c r="C119" s="55" t="s">
-        <v>252</v>
+      <c r="C119" s="38" t="s">
+        <v>251</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>90</v>
@@ -3555,152 +3646,152 @@
       <c r="E119" s="18"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="21" customHeight="1">
+      <c r="B120" s="46"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="18" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" ht="21" customHeight="1">
-      <c r="B120" s="50"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B121" s="50"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B122" s="46"/>
+      <c r="C122" s="21" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B122" s="50"/>
-      <c r="C122" s="21" t="s">
+      <c r="D122" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B123" s="50"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="E123" s="18" t="s">
         <v>260</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="26.1" customHeight="1">
-      <c r="B124" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="39"/>
+      <c r="B124" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="67"/>
     </row>
     <row r="125" spans="2:7" ht="22.15" customHeight="1">
       <c r="B125" s="49">
         <v>6</v>
       </c>
-      <c r="C125" s="63" t="s">
+      <c r="C125" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="E125" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="F125" s="51"/>
+      <c r="G125" s="52"/>
+    </row>
+    <row r="126" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B126" s="46"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F125" s="41"/>
-      <c r="G125" s="42"/>
-    </row>
-    <row r="126" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B126" s="50"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="18" t="s">
+      <c r="E126" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="E126" s="40" t="s">
+      <c r="F126" s="51"/>
+      <c r="G126" s="52"/>
+    </row>
+    <row r="127" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B127" s="46"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="F126" s="41"/>
-      <c r="G126" s="42"/>
-    </row>
-    <row r="127" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B127" s="50"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="18" t="s">
+      <c r="E127" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="E127" s="40" t="s">
+      <c r="F127" s="51"/>
+      <c r="G127" s="52"/>
+    </row>
+    <row r="128" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B128" s="46"/>
+      <c r="C128" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="F127" s="41"/>
-      <c r="G127" s="42"/>
-    </row>
-    <row r="128" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B128" s="50"/>
-      <c r="C128" s="63" t="s">
+      <c r="D128" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="E128" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="E128" s="40" t="s">
+      <c r="F128" s="51"/>
+      <c r="G128" s="52"/>
+    </row>
+    <row r="129" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B129" s="46"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F128" s="41"/>
-      <c r="G128" s="42"/>
-    </row>
-    <row r="129" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B129" s="50"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="19" t="s">
+      <c r="E129" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E129" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="F129" s="44"/>
-      <c r="G129" s="45"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="55"/>
     </row>
     <row r="130" spans="2:7" ht="22.15" customHeight="1">
       <c r="B130" s="49"/>
-      <c r="C130" s="66"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E130" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="E130" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="F130" s="41"/>
-      <c r="G130" s="42"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="52"/>
     </row>
     <row r="131" spans="2:7" ht="10.15" customHeight="1">
       <c r="B131" s="22"/>
@@ -3711,56 +3802,56 @@
       <c r="G131" s="25"/>
     </row>
     <row r="132" spans="2:7" ht="30" customHeight="1">
-      <c r="B132" s="75" t="s">
+      <c r="B132" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" s="74"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="C132" s="76"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="27"/>
     </row>
     <row r="133" spans="2:7" ht="30" customHeight="1">
-      <c r="B133" s="78"/>
-      <c r="C133" s="79"/>
-      <c r="D133" s="80"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="78"/>
       <c r="E133" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F133" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F133" s="26" t="s">
+      <c r="G133" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G133" s="5" t="s">
+    </row>
+    <row r="134" spans="2:7" ht="30" customHeight="1">
+      <c r="B134" s="79"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="21" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" ht="30" customHeight="1">
-      <c r="B134" s="81"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="83"/>
-      <c r="E134" s="21" t="s">
+      <c r="F134" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="F134" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="G134" s="47"/>
+      <c r="G134" s="57"/>
     </row>
     <row r="146" spans="3:7" ht="27.95" customHeight="1">
-      <c r="C146" s="48"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
     </row>
     <row r="147" spans="3:7" ht="27.95" customHeight="1">
-      <c r="C147" s="48"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="48"/>
-      <c r="G147" s="48"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="79">
@@ -3794,6 +3885,13 @@
     <mergeCell ref="C119:C120"/>
     <mergeCell ref="C125:C127"/>
     <mergeCell ref="C128:C130"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B125:B130"/>
     <mergeCell ref="C80:C82"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="C89:C96"/>
@@ -3820,13 +3918,6 @@
     <mergeCell ref="E130:G130"/>
     <mergeCell ref="F134:G134"/>
     <mergeCell ref="C146:G146"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B125:B130"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B7:G7"/>

--- a/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
+++ b/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="301">
   <si>
     <t>功能清单</t>
   </si>
@@ -543,9 +543,6 @@
     <t>今日销售额</t>
   </si>
   <si>
-    <t>点击进入详细今日销售总额统计：实收金额，去掉优惠、红包、返利后账户实际获取金额</t>
-  </si>
-  <si>
     <t>今日新增会员</t>
   </si>
   <si>
@@ -655,6 +652,279 @@
   </si>
   <si>
     <t>详细说明</t>
+  </si>
+  <si>
+    <t>营销管理</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+  </si>
+  <si>
+    <t>已有信息：名称｜详细｜操作</t>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>搜索框关键词管理</t>
+  </si>
+  <si>
+    <t>商城管理</t>
+  </si>
+  <si>
+    <t>店铺介绍</t>
+  </si>
+  <si>
+    <t>店铺图文介绍</t>
+  </si>
+  <si>
+    <t>400电话</t>
+  </si>
+  <si>
+    <t>400电话管理</t>
+  </si>
+  <si>
+    <t>关于我们单文档内容维护</t>
+  </si>
+  <si>
+    <t>广告管理</t>
+  </si>
+  <si>
+    <t>首页banner</t>
+  </si>
+  <si>
+    <t>首页广告大图管理：更换图片｜添加链接</t>
+  </si>
+  <si>
+    <t>其他广告位</t>
+  </si>
+  <si>
+    <t>根据网站实际广告位情况配置</t>
+  </si>
+  <si>
+    <t>文章管理</t>
+  </si>
+  <si>
+    <t>文章列表</t>
+  </si>
+  <si>
+    <t>文章列表｜操作</t>
+  </si>
+  <si>
+    <t>添加文章</t>
+  </si>
+  <si>
+    <t>分类管理</t>
+  </si>
+  <si>
+    <t>文章分类管理</t>
+  </si>
+  <si>
+    <t>添加分类</t>
+  </si>
+  <si>
+    <t>添加文章分类</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>退款处理</t>
+  </si>
+  <si>
+    <t>批量转账接口</t>
+  </si>
+  <si>
+    <t>统计报表</t>
+  </si>
+  <si>
+    <t>销售额统计</t>
+  </si>
+  <si>
+    <t>年｜单月｜区间</t>
+  </si>
+  <si>
+    <t>详细</t>
+  </si>
+  <si>
+    <t>年度销售额统计</t>
+  </si>
+  <si>
+    <t>订单数统计</t>
+  </si>
+  <si>
+    <t>年度订单数统计</t>
+  </si>
+  <si>
+    <t>第三方接口对接</t>
+  </si>
+  <si>
+    <t>支付接口</t>
+  </si>
+  <si>
+    <t>需协助推荐相关平台给甲方并对接，平台费用甲方承担</t>
+  </si>
+  <si>
+    <t>微信扫码支付</t>
+  </si>
+  <si>
+    <t>短信接口</t>
+  </si>
+  <si>
+    <t>需协助推荐短信平台给甲方并对接，平台费用甲方承担</t>
+  </si>
+  <si>
+    <t>第三方客服</t>
+  </si>
+  <si>
+    <t>客服接口</t>
+  </si>
+  <si>
+    <t>物流接口</t>
+  </si>
+  <si>
+    <t>快递100</t>
+  </si>
+  <si>
+    <t>查询物流编号</t>
+  </si>
+  <si>
+    <t>其他说明/工时评估</t>
+  </si>
+  <si>
+    <t>开发环境</t>
+  </si>
+  <si>
+    <t>开发语言</t>
+  </si>
+  <si>
+    <t>APP:APICloud (安卓+苹果)   PC网站：LAMP  语言：中英文 两套语言</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>源码&amp;培训</t>
+  </si>
+  <si>
+    <t>开发过程要透明，开发完成后交接全部代码和文档，对甲方网络操作人员进行培训，对二次开发进行培训</t>
+  </si>
+  <si>
+    <t>基础维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确保已有的数据库管理平台正常稳定的运行。 </t>
+  </si>
+  <si>
+    <t>日常维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提供一年内网站非数据库内容修改，更新，视频转换格式及上传，及页面文字图片内容修改指导。 </t>
+  </si>
+  <si>
+    <t>针对以上功能整体报价：</t>
+  </si>
+  <si>
+    <t>APP + PC</t>
+  </si>
+  <si>
+    <t>开发周期</t>
+  </si>
+  <si>
+    <t>2.5个月~3个月</t>
+  </si>
+  <si>
+    <t>项目后期执行会提供详细时间规划</t>
+  </si>
+  <si>
+    <t>人员投入</t>
+  </si>
+  <si>
+    <t>1项目经理，1美工，2前端，1数据库，1后端，1测试</t>
+  </si>
+  <si>
+    <t>字段：用户名｜商品名称｜评价详情｜状态｜操作
+操作：回复｜忽略｜删除｜已回复｜已忽略</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理、订单管理、会员管理、营销管理、商城管理、财务管理、统计报表；</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单统计信息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表管理（筛选）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单评价管理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单会员详细统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab销售额统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab订单统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息列表（分页，分类）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本编辑器修改，添加</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表（筛选，排序，搜索，显示字段选择，分页，添加、修改、删除商品）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类（已有的列表，添加，修改，删除）|商品标签（已有的列表，添加，修改，删除）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品统计（简单的表格，一行标题，一行数据）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、修改商品：一个两列多行的表格，每个字段都有，字段分组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体会员统计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员列表管理（筛选，排序，搜索，设定隐藏显示列，分页，添加，删除，修改）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>字段：会员名 | 年龄｜手机号码｜总消费额｜总订单数｜注册时间｜状态｜操作
@@ -665,284 +935,21 @@
 注册时间：用户注册账号时间。
 状态：可用/冻结
 操作：查看详细信息｜删除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用户订单：
 订单名称｜订单金额｜订单状态｜下单时间｜操作
 订单状态：未支付｜已支付｜已成交｜已关闭
 操作：更改订单状态｜删除</t>
-  </si>
-  <si>
-    <t>营销管理</t>
-  </si>
-  <si>
-    <t>优惠券</t>
-  </si>
-  <si>
-    <t>优惠券列表</t>
-  </si>
-  <si>
-    <t>已有信息：名称｜详细｜操作</t>
-  </si>
-  <si>
-    <t>搜索框</t>
-  </si>
-  <si>
-    <t>搜索框关键词管理</t>
-  </si>
-  <si>
-    <t>商城管理</t>
-  </si>
-  <si>
-    <t>店铺介绍</t>
-  </si>
-  <si>
-    <t>店铺图文介绍</t>
-  </si>
-  <si>
-    <t>400电话</t>
-  </si>
-  <si>
-    <t>400电话管理</t>
-  </si>
-  <si>
-    <t>关于我们单文档内容维护</t>
-  </si>
-  <si>
-    <t>广告管理</t>
-  </si>
-  <si>
-    <t>首页banner</t>
-  </si>
-  <si>
-    <t>首页广告大图管理：更换图片｜添加链接</t>
-  </si>
-  <si>
-    <t>其他广告位</t>
-  </si>
-  <si>
-    <t>根据网站实际广告位情况配置</t>
-  </si>
-  <si>
-    <t>文章管理</t>
-  </si>
-  <si>
-    <t>文章列表</t>
-  </si>
-  <si>
-    <t>文章列表｜操作</t>
-  </si>
-  <si>
-    <t>添加文章</t>
-  </si>
-  <si>
-    <t>分类管理</t>
-  </si>
-  <si>
-    <t>文章分类管理</t>
-  </si>
-  <si>
-    <t>添加分类</t>
-  </si>
-  <si>
-    <t>添加文章分类</t>
-  </si>
-  <si>
-    <t>财务管理</t>
-  </si>
-  <si>
-    <t>退款处理</t>
-  </si>
-  <si>
-    <t>批量转账接口</t>
-  </si>
-  <si>
-    <t>统计报表</t>
-  </si>
-  <si>
-    <t>销售额统计</t>
-  </si>
-  <si>
-    <t>年｜单月｜区间</t>
-  </si>
-  <si>
-    <t>详细</t>
-  </si>
-  <si>
-    <t>年度销售额统计</t>
-  </si>
-  <si>
-    <t>订单数统计</t>
-  </si>
-  <si>
-    <t>年度订单数统计</t>
-  </si>
-  <si>
-    <t>第三方接口对接</t>
-  </si>
-  <si>
-    <t>支付接口</t>
-  </si>
-  <si>
-    <t>需协助推荐相关平台给甲方并对接，平台费用甲方承担</t>
-  </si>
-  <si>
-    <t>微信扫码支付</t>
-  </si>
-  <si>
-    <t>短信接口</t>
-  </si>
-  <si>
-    <t>需协助推荐短信平台给甲方并对接，平台费用甲方承担</t>
-  </si>
-  <si>
-    <t>第三方客服</t>
-  </si>
-  <si>
-    <t>客服接口</t>
-  </si>
-  <si>
-    <t>物流接口</t>
-  </si>
-  <si>
-    <t>快递100</t>
-  </si>
-  <si>
-    <t>查询物流编号</t>
-  </si>
-  <si>
-    <t>其他说明/工时评估</t>
-  </si>
-  <si>
-    <t>开发环境</t>
-  </si>
-  <si>
-    <t>开发语言</t>
-  </si>
-  <si>
-    <t>APP:APICloud (安卓+苹果)   PC网站：LAMP  语言：中英文 两套语言</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>阿里云</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>源码&amp;培训</t>
-  </si>
-  <si>
-    <t>开发过程要透明，开发完成后交接全部代码和文档，对甲方网络操作人员进行培训，对二次开发进行培训</t>
-  </si>
-  <si>
-    <t>基础维护</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确保已有的数据库管理平台正常稳定的运行。 </t>
-  </si>
-  <si>
-    <t>日常维护</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提供一年内网站非数据库内容修改，更新，视频转换格式及上传，及页面文字图片内容修改指导。 </t>
-  </si>
-  <si>
-    <t>针对以上功能整体报价：</t>
-  </si>
-  <si>
-    <t>APP + PC</t>
-  </si>
-  <si>
-    <t>开发周期</t>
-  </si>
-  <si>
-    <t>2.5个月~3个月</t>
-  </si>
-  <si>
-    <t>项目后期执行会提供详细时间规划</t>
-  </si>
-  <si>
-    <t>人员投入</t>
-  </si>
-  <si>
-    <t>1项目经理，1美工，2前端，1数据库，1后端，1测试</t>
-  </si>
-  <si>
-    <t>字段：用户名｜商品名称｜评价详情｜状态｜操作
-操作：回复｜忽略｜删除｜已回复｜已忽略</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>商品管理、订单管理、会员管理、营销管理、商城管理、财务管理、统计报表；</t>
+    <t>Tab（折扣，优惠券，搜索框关键词，广告，邀请码等）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>商品统计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类（添加，修改，删除）|商品标签（添加，修改，删除）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单统计信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单列表管理（筛选）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票管理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单评价管理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员统计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品列表（筛选，排序，搜索，分页，添加、修改、删除商品）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员列表管理（筛选，排序，搜索，分页，添加，删除，修改）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单会员详细统计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab销售额统计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab订单统计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息列表（分页，分类）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>富文本编辑器修改，添加</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab（折扣，优惠券，搜索框关键词，广告，邀请码等）</t>
+    <t>点击进入详细今日销售总额统计：实收金额，去掉优惠、红包、返利后账户实际获取金额</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1427,23 +1434,104 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,40 +1542,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,6 +1560,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1514,98 +1581,38 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,8 +2072,8 @@
   <dimension ref="B1:G147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2077,19 +2084,19 @@
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="73.75" customWidth="1"/>
-    <col min="7" max="7" width="46.625" customWidth="1"/>
+    <col min="7" max="7" width="68.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.1" customHeight="1"/>
     <row r="2" spans="2:7" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="2:7" ht="22.15" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -2112,20 +2119,20 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="2:7" ht="25.15" customHeight="1">
-      <c r="B5" s="49">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2140,8 +2147,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="23.1" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2154,20 +2161,20 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="21" customHeight="1">
-      <c r="B8" s="49">
+      <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2182,8 +2189,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2196,20 +2203,20 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B11" s="49">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2222,8 +2229,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B12" s="46"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2234,9 +2241,9 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B13" s="46"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="49" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2248,9 +2255,9 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B14" s="46"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -2260,9 +2267,9 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B15" s="46"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
@@ -2272,8 +2279,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B16" s="46"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2286,8 +2293,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B17" s="46"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2300,13 +2307,13 @@
       </c>
     </row>
     <row r="18" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B18" s="49">
+      <c r="B18" s="32">
         <v>2</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2320,9 +2327,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B19" s="46"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
@@ -2332,9 +2339,9 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B20" s="46"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
@@ -2344,9 +2351,9 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B21" s="46"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2356,9 +2363,9 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B22" s="46"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2368,9 +2375,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B23" s="46"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
@@ -2380,9 +2387,9 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" s="2" customFormat="1" ht="33">
-      <c r="B24" s="46"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="53" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2396,9 +2403,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B25" s="46"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
@@ -2408,9 +2415,9 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B26" s="46"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="13" t="s">
         <v>60</v>
       </c>
@@ -2420,9 +2427,9 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B27" s="46"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="13" t="s">
         <v>62</v>
       </c>
@@ -2432,9 +2439,9 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B28" s="46"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="13" t="s">
         <v>64</v>
       </c>
@@ -2444,9 +2451,9 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B29" s="46"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="13" t="s">
         <v>66</v>
       </c>
@@ -2456,13 +2463,13 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B30" s="59">
+      <c r="B30" s="53">
         <v>3</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="53" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -2474,9 +2481,9 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B31" s="59"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="13" t="s">
         <v>71</v>
       </c>
@@ -2486,9 +2493,9 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B32" s="59"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="13" t="s">
         <v>73</v>
       </c>
@@ -2498,9 +2505,9 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B33" s="59"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="13" t="s">
         <v>75</v>
       </c>
@@ -2510,9 +2517,9 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B34" s="59"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="59" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="53" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -2526,10 +2533,10 @@
       </c>
     </row>
     <row r="35" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B35" s="59"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="68" t="s">
+      <c r="B35" s="53"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2538,20 +2545,20 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B36" s="59"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="69"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B37" s="59"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="69"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2560,19 +2567,19 @@
       </c>
     </row>
     <row r="38" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B38" s="59"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="70"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B39" s="59"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="59" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="53" t="s">
         <v>87</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -2581,27 +2588,27 @@
       <c r="F39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B40" s="60"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="60"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="72"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B41" s="59">
+      <c r="B41" s="53">
         <v>4</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="86" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -2614,8 +2621,8 @@
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B42" s="59"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="87"/>
       <c r="D42" s="12" t="s">
         <v>94</v>
       </c>
@@ -2626,8 +2633,8 @@
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B43" s="59"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="87"/>
       <c r="D43" s="12" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2645,8 @@
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B44" s="59"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="12" t="s">
         <v>97</v>
       </c>
@@ -2650,13 +2657,13 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B45" s="45">
+      <c r="B45" s="72">
         <v>4</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="33" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2668,9 +2675,9 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="5" t="s">
         <v>103</v>
       </c>
@@ -2680,9 +2687,9 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="5" t="s">
         <v>105</v>
       </c>
@@ -2692,9 +2699,9 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="49" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="32" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2706,9 +2713,9 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="5" t="s">
         <v>78</v>
       </c>
@@ -2718,9 +2725,9 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="5" t="s">
         <v>110</v>
       </c>
@@ -2730,9 +2737,9 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="5" t="s">
         <v>112</v>
       </c>
@@ -2742,9 +2749,9 @@
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="49" t="s">
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="32" t="s">
         <v>114</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2756,9 +2763,9 @@
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
@@ -2768,9 +2775,9 @@
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="5" t="s">
         <v>119</v>
       </c>
@@ -2778,9 +2785,9 @@
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="5" t="s">
         <v>120</v>
       </c>
@@ -2790,9 +2797,9 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="5" t="s">
         <v>122</v>
       </c>
@@ -2802,9 +2809,9 @@
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="49" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="32" t="s">
         <v>124</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -2818,9 +2825,9 @@
       </c>
     </row>
     <row r="58" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="5" t="s">
         <v>128</v>
       </c>
@@ -2830,9 +2837,9 @@
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="5" t="s">
         <v>130</v>
       </c>
@@ -2842,9 +2849,9 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="5" t="s">
         <v>132</v>
       </c>
@@ -2854,9 +2861,9 @@
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="5" t="s">
         <v>134</v>
       </c>
@@ -2866,9 +2873,9 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="5" t="s">
         <v>136</v>
       </c>
@@ -2880,9 +2887,9 @@
       </c>
     </row>
     <row r="63" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="49" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="32" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -2894,9 +2901,9 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="5" t="s">
         <v>141</v>
       </c>
@@ -2906,9 +2913,9 @@
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="32" t="s">
         <v>143</v>
       </c>
       <c r="E65" s="5"/>
@@ -2918,9 +2925,9 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="5" t="s">
         <v>145</v>
       </c>
@@ -2930,8 +2937,8 @@
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="11" t="s">
         <v>147</v>
       </c>
@@ -2942,8 +2949,8 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="11" t="s">
         <v>149</v>
       </c>
@@ -2954,8 +2961,8 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="11" t="s">
         <v>151</v>
       </c>
@@ -2966,8 +2973,8 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="11" t="s">
         <v>153</v>
       </c>
@@ -2976,8 +2983,8 @@
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="11" t="s">
         <v>154</v>
       </c>
@@ -2988,8 +2995,8 @@
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="11" t="s">
         <v>156</v>
       </c>
@@ -3001,7 +3008,7 @@
     </row>
     <row r="73" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B73" s="7"/>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="56" t="s">
         <v>158</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -3015,7 +3022,7 @@
     </row>
     <row r="74" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B74" s="7"/>
-      <c r="C74" s="39"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="11" t="s">
         <v>161</v>
       </c>
@@ -3027,7 +3034,7 @@
     </row>
     <row r="75" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B75" s="7"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="11" t="s">
         <v>163</v>
       </c>
@@ -3038,10 +3045,10 @@
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B76" s="49">
+      <c r="B76" s="32">
         <v>5</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="55" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -3054,8 +3061,8 @@
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B77" s="46"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="5" t="s">
         <v>167</v>
       </c>
@@ -3066,8 +3073,8 @@
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="5" t="s">
         <v>169</v>
       </c>
@@ -3078,472 +3085,474 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="2:7" ht="16.5">
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="37"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="64"/>
     </row>
     <row r="80" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B80" s="49">
+      <c r="B80" s="32">
         <v>1</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="32" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>174</v>
       </c>
       <c r="F80" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B81" s="33"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B81" s="46"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="5" t="s">
+      <c r="F81" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B82" s="33"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B82" s="46"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B83" s="49">
+      <c r="B83" s="32">
         <v>2</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="D83" s="49" t="s">
-        <v>180</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B84" s="33"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B84" s="46"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="G84" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B85" s="33"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="F85" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B85" s="46"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
     <row r="86" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B86" s="46"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B87" s="33"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B87" s="46"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B88" s="33"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B88" s="46"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B89" s="49">
+      <c r="B89" s="32">
         <v>4</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="E89" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="F89" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="G89" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B90" s="33"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B90" s="46"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B91" s="33"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B91" s="46"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B92" s="33"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B92" s="46"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B93" s="33"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B93" s="46"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B94" s="33"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B94" s="46"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="49" t="s">
+      <c r="E94" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="F94" s="83"/>
+      <c r="F94" s="46"/>
       <c r="G94" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B95" s="46"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="85"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="48"/>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="2:7" s="2" customFormat="1" ht="33" outlineLevel="1">
-      <c r="B96" s="47"/>
-      <c r="C96" s="48"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="59"/>
       <c r="D96" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E96" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B97" s="32">
+        <v>5</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="F96" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B97" s="49">
-        <v>5</v>
-      </c>
-      <c r="C97" s="61" t="s">
+      <c r="D97" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="E97" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="F97" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="G97" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B98" s="46"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="46"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B99" s="46"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="46"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F99" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" s="2" customFormat="1" ht="132" outlineLevel="1">
+      <c r="B100" s="33"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="2:7" s="2" customFormat="1" ht="132" outlineLevel="1">
-      <c r="B100" s="46"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="49" t="s">
+      <c r="F100" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" s="2" customFormat="1" ht="66" outlineLevel="1">
+      <c r="B101" s="33"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B102" s="32">
+        <v>6</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="D102" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" s="2" customFormat="1" ht="66" outlineLevel="1">
-      <c r="B101" s="46"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="6" t="s">
+      <c r="E102" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B102" s="49">
-        <v>6</v>
-      </c>
-      <c r="C102" s="61" t="s">
+      <c r="F102" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="103" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B103" s="47"/>
-      <c r="C103" s="63"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="60"/>
       <c r="D103" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B104" s="32">
+        <v>7</v>
+      </c>
+      <c r="C104" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B104" s="49">
-        <v>7</v>
-      </c>
-      <c r="C104" s="38" t="s">
+      <c r="G104" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B105" s="33"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D104" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="18" t="s">
+      <c r="F105" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B105" s="46"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="G105" s="6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B106" s="46"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="88"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="51"/>
       <c r="E106" s="5" t="s">
         <v>169</v>
       </c>
       <c r="F106" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B107" s="33"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B107" s="46"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="86" t="s">
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B108" s="33"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="F108" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B109" s="33"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B108" s="46"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="18" t="s">
+      <c r="E109" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F109" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B109" s="46"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="86" t="s">
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B110" s="33"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="F110" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B111" s="33"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B110" s="46"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="18" t="s">
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B112" s="33"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B111" s="46"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="18" t="s">
+      <c r="F112" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B112" s="46"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="G112" s="10"/>
     </row>
@@ -3552,93 +3561,93 @@
         <v>8</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B114" s="49">
+      <c r="B114" s="32">
         <v>9</v>
       </c>
-      <c r="C114" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="D114" s="86" t="s">
-        <v>244</v>
+      <c r="C114" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F114" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B115" s="33"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B116" s="33"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="49" t="s">
         <v>245</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B115" s="46"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="88"/>
-      <c r="E115" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B116" s="46"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="86" t="s">
-        <v>248</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B117" s="46"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="88"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="51"/>
       <c r="E117" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="F117" s="28" t="s">
-        <v>249</v>
-      </c>
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="2:7" ht="16.5">
-      <c r="B118" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="37"/>
+      <c r="B118" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="64"/>
     </row>
     <row r="119" spans="2:7" ht="21" customHeight="1">
-      <c r="B119" s="49">
+      <c r="B119" s="32">
         <v>5</v>
       </c>
-      <c r="C119" s="38" t="s">
-        <v>251</v>
+      <c r="C119" s="55" t="s">
+        <v>248</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>90</v>
@@ -3646,68 +3655,68 @@
       <c r="E119" s="18"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="21" customHeight="1">
-      <c r="B120" s="46"/>
-      <c r="C120" s="48"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B121" s="46"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B122" s="46"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B123" s="46"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="26.1" customHeight="1">
       <c r="B124" s="65" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C124" s="66"/>
       <c r="D124" s="66"/>
@@ -3716,82 +3725,82 @@
       <c r="G124" s="67"/>
     </row>
     <row r="125" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B125" s="49">
+      <c r="B125" s="32">
         <v>6</v>
       </c>
-      <c r="C125" s="61" t="s">
+      <c r="C125" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125" s="69"/>
+      <c r="G125" s="70"/>
+    </row>
+    <row r="126" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B126" s="33"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="E126" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="F126" s="69"/>
+      <c r="G126" s="70"/>
+    </row>
+    <row r="127" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B127" s="33"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F125" s="51"/>
-      <c r="G125" s="52"/>
-    </row>
-    <row r="126" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B126" s="46"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="18" t="s">
+      <c r="E127" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="F127" s="69"/>
+      <c r="G127" s="70"/>
+    </row>
+    <row r="128" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B128" s="33"/>
+      <c r="C128" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="F126" s="51"/>
-      <c r="G126" s="52"/>
-    </row>
-    <row r="127" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B127" s="46"/>
-      <c r="C127" s="63"/>
-      <c r="D127" s="18" t="s">
+      <c r="D128" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="E127" s="50" t="s">
+      <c r="E128" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="F127" s="51"/>
-      <c r="G127" s="52"/>
-    </row>
-    <row r="128" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B128" s="46"/>
-      <c r="C128" s="61" t="s">
+      <c r="F128" s="69"/>
+      <c r="G128" s="70"/>
+    </row>
+    <row r="129" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B129" s="33"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="E129" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="E128" s="50" t="s">
+      <c r="F129" s="74"/>
+      <c r="G129" s="75"/>
+    </row>
+    <row r="130" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B130" s="32"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F128" s="51"/>
-      <c r="G128" s="52"/>
-    </row>
-    <row r="129" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B129" s="46"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="19" t="s">
+      <c r="E130" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="E129" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="F129" s="54"/>
-      <c r="G129" s="55"/>
-    </row>
-    <row r="130" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B130" s="49"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E130" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F130" s="51"/>
-      <c r="G130" s="52"/>
+      <c r="F130" s="69"/>
+      <c r="G130" s="70"/>
     </row>
     <row r="131" spans="2:7" ht="10.15" customHeight="1">
       <c r="B131" s="22"/>
@@ -3802,59 +3811,122 @@
       <c r="G131" s="25"/>
     </row>
     <row r="132" spans="2:7" ht="30" customHeight="1">
-      <c r="B132" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="C132" s="74"/>
-      <c r="D132" s="75"/>
+      <c r="B132" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" s="37"/>
+      <c r="D132" s="38"/>
       <c r="E132" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="27"/>
     </row>
     <row r="133" spans="2:7" ht="30" customHeight="1">
-      <c r="B133" s="76"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="78"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="41"/>
       <c r="E133" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="30" customHeight="1">
+      <c r="B134" s="42"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="F133" s="26" t="s">
+      <c r="F134" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="G133" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" ht="30" customHeight="1">
-      <c r="B134" s="79"/>
-      <c r="C134" s="80"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F134" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G134" s="57"/>
+      <c r="G134" s="77"/>
     </row>
     <row r="146" spans="3:7" ht="27.95" customHeight="1">
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58"/>
-      <c r="G146" s="58"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
     </row>
     <row r="147" spans="3:7" ht="27.95" customHeight="1">
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="58"/>
+      <c r="C147" s="71"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C29"/>
+    <mergeCell ref="C30:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B72"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D45:D47"/>
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="E100:E101"/>
     <mergeCell ref="G39:G40"/>
@@ -3871,69 +3943,6 @@
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B30:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B72"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="C146:G146"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="C30:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D18:D23"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
+++ b/共享文档/摩尔衣橱衣橱项目_需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15360" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,16 +678,10 @@
     <t>店铺介绍</t>
   </si>
   <si>
-    <t>店铺图文介绍</t>
-  </si>
-  <si>
     <t>400电话</t>
   </si>
   <si>
     <t>400电话管理</t>
-  </si>
-  <si>
-    <t>关于我们单文档内容维护</t>
   </si>
   <si>
     <t>广告管理</t>
@@ -938,18 +932,26 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>Tab（折扣，优惠券，搜索框关键词，广告，邀请码等）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入详细今日销售总额统计：实收金额，去掉优惠、红包、返利后账户实际获取金额</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺图文介绍</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们单文档内容维护</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>用户订单：
 订单名称｜订单金额｜订单状态｜下单时间｜操作
 订单状态：未支付｜已支付｜已成交｜已关闭
 操作：更改订单状态｜删除</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab（折扣，优惠券，搜索框关键词，广告，邀请码等）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击进入详细今日销售总额统计：实收金额，去掉优惠、红包、返利后账户实际获取金额</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1434,19 +1436,130 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,117 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2072,8 +2074,8 @@
   <dimension ref="B1:G147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2089,14 +2091,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.1" customHeight="1"/>
     <row r="2" spans="2:7" ht="45" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="2:7" ht="22.15" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -2119,20 +2121,20 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" ht="25.15" customHeight="1">
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2147,8 +2149,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="23.1" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2161,20 +2163,20 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="21" customHeight="1">
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <v>2</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2189,8 +2191,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2203,20 +2205,20 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <v>1</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="44" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2229,8 +2231,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B12" s="33"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2241,9 +2243,9 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B13" s="33"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="32" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2255,9 +2257,9 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B14" s="33"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -2267,9 +2269,9 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B15" s="33"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
@@ -2279,8 +2281,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B16" s="33"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2293,8 +2295,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B17" s="33"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2307,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B18" s="32">
+      <c r="B18" s="29">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2327,9 +2329,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B19" s="33"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
@@ -2339,9 +2341,9 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B20" s="33"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
@@ -2351,9 +2353,9 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B21" s="33"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2363,9 +2365,9 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B22" s="33"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2375,9 +2377,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B23" s="33"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
@@ -2387,8 +2389,8 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7" s="2" customFormat="1" ht="33">
-      <c r="B24" s="33"/>
-      <c r="C24" s="84"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="53" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2405,8 @@
       </c>
     </row>
     <row r="25" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B25" s="33"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="53"/>
       <c r="E25" s="13" t="s">
         <v>58</v>
@@ -2415,8 +2417,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B26" s="33"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="53"/>
       <c r="E26" s="13" t="s">
         <v>60</v>
@@ -2427,8 +2429,8 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B27" s="33"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="53"/>
       <c r="E27" s="13" t="s">
         <v>62</v>
@@ -2439,8 +2441,8 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B28" s="33"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="53"/>
       <c r="E28" s="13" t="s">
         <v>64</v>
@@ -2451,8 +2453,8 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B29" s="33"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="53"/>
       <c r="E29" s="13" t="s">
         <v>66</v>
@@ -2466,7 +2468,7 @@
       <c r="B30" s="53">
         <v>3</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="47" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="53" t="s">
@@ -2482,7 +2484,7 @@
     </row>
     <row r="31" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B31" s="53"/>
-      <c r="C31" s="85"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="53"/>
       <c r="E31" s="13" t="s">
         <v>71</v>
@@ -2494,7 +2496,7 @@
     </row>
     <row r="32" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B32" s="53"/>
-      <c r="C32" s="85"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="53"/>
       <c r="E32" s="13" t="s">
         <v>73</v>
@@ -2506,7 +2508,7 @@
     </row>
     <row r="33" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B33" s="53"/>
-      <c r="C33" s="85"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="53"/>
       <c r="E33" s="13" t="s">
         <v>75</v>
@@ -2518,7 +2520,7 @@
     </row>
     <row r="34" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B34" s="53"/>
-      <c r="C34" s="85"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="53" t="s">
         <v>77</v>
       </c>
@@ -2534,9 +2536,9 @@
     </row>
     <row r="35" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B35" s="53"/>
-      <c r="C35" s="85"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="53"/>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="68" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2546,9 +2548,9 @@
     </row>
     <row r="36" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B36" s="53"/>
-      <c r="C36" s="85"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="53"/>
-      <c r="E36" s="30"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="6" t="s">
         <v>83</v>
       </c>
@@ -2556,9 +2558,9 @@
     </row>
     <row r="37" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B37" s="53"/>
-      <c r="C37" s="85"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="30"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="6" t="s">
         <v>84</v>
       </c>
@@ -2568,9 +2570,9 @@
     </row>
     <row r="38" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B38" s="53"/>
-      <c r="C38" s="85"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="53"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="6" t="s">
         <v>86</v>
       </c>
@@ -2578,7 +2580,7 @@
     </row>
     <row r="39" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B39" s="53"/>
-      <c r="C39" s="85"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="53" t="s">
         <v>87</v>
       </c>
@@ -2588,13 +2590,13 @@
       <c r="F39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B40" s="54"/>
-      <c r="C40" s="86"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="54"/>
       <c r="E40" s="14" t="s">
         <v>90</v>
@@ -2602,13 +2604,13 @@
       <c r="F40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="72"/>
     </row>
     <row r="41" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B41" s="53">
         <v>4</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="48" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -2622,7 +2624,7 @@
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B42" s="53"/>
-      <c r="C42" s="87"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="12" t="s">
         <v>94</v>
       </c>
@@ -2634,7 +2636,7 @@
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B43" s="53"/>
-      <c r="C43" s="87"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="12" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2648,7 @@
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" ht="16.5">
       <c r="B44" s="53"/>
-      <c r="C44" s="88"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="12" t="s">
         <v>97</v>
       </c>
@@ -2657,13 +2659,13 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B45" s="72">
+      <c r="B45" s="51">
         <v>4</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2675,9 +2677,9 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="5" t="s">
         <v>103</v>
       </c>
@@ -2687,9 +2689,9 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="52"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="5" t="s">
         <v>105</v>
       </c>
@@ -2699,9 +2701,9 @@
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="32" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="29" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2713,9 +2715,9 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="5" t="s">
         <v>78</v>
       </c>
@@ -2725,9 +2727,9 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="5" t="s">
         <v>110</v>
       </c>
@@ -2737,9 +2739,9 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="5" t="s">
         <v>112</v>
       </c>
@@ -2749,9 +2751,9 @@
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="32" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="29" t="s">
         <v>114</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -2763,9 +2765,9 @@
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
@@ -2775,9 +2777,9 @@
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="5" t="s">
         <v>119</v>
       </c>
@@ -2785,9 +2787,9 @@
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="5" t="s">
         <v>120</v>
       </c>
@@ -2797,9 +2799,9 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="5" t="s">
         <v>122</v>
       </c>
@@ -2809,9 +2811,9 @@
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="32" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -2825,9 +2827,9 @@
       </c>
     </row>
     <row r="58" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="5" t="s">
         <v>128</v>
       </c>
@@ -2837,9 +2839,9 @@
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="5" t="s">
         <v>130</v>
       </c>
@@ -2849,9 +2851,9 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="5" t="s">
         <v>132</v>
       </c>
@@ -2861,9 +2863,9 @@
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="5" t="s">
         <v>134</v>
       </c>
@@ -2873,9 +2875,9 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="52"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="5" t="s">
         <v>136</v>
       </c>
@@ -2887,9 +2889,9 @@
       </c>
     </row>
     <row r="63" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="32" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -2901,9 +2903,9 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="52"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="5" t="s">
         <v>141</v>
       </c>
@@ -2913,9 +2915,9 @@
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="32" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="29" t="s">
         <v>143</v>
       </c>
       <c r="E65" s="5"/>
@@ -2925,9 +2927,9 @@
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="52"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="5" t="s">
         <v>145</v>
       </c>
@@ -2937,8 +2939,8 @@
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="11" t="s">
         <v>147</v>
       </c>
@@ -2949,8 +2951,8 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="11" t="s">
         <v>149</v>
       </c>
@@ -2961,8 +2963,8 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="11" t="s">
         <v>151</v>
       </c>
@@ -2973,8 +2975,8 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="11" t="s">
         <v>153</v>
       </c>
@@ -2983,8 +2985,8 @@
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="11" t="s">
         <v>154</v>
       </c>
@@ -2995,8 +2997,8 @@
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="11" t="s">
         <v>156</v>
       </c>
@@ -3008,7 +3010,7 @@
     </row>
     <row r="73" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B73" s="7"/>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="45" t="s">
         <v>158</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -3022,7 +3024,7 @@
     </row>
     <row r="74" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B74" s="7"/>
-      <c r="C74" s="56"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="11" t="s">
         <v>161</v>
       </c>
@@ -3034,7 +3036,7 @@
     </row>
     <row r="75" spans="2:7" s="2" customFormat="1" ht="14.65" customHeight="1">
       <c r="B75" s="7"/>
-      <c r="C75" s="56"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="11" t="s">
         <v>163</v>
       </c>
@@ -3045,10 +3047,10 @@
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B76" s="32">
+      <c r="B76" s="29">
         <v>5</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -3061,8 +3063,8 @@
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B77" s="33"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="5" t="s">
         <v>167</v>
       </c>
@@ -3073,8 +3075,8 @@
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="2:7" s="2" customFormat="1" ht="16.5">
-      <c r="B78" s="52"/>
-      <c r="C78" s="59"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="5" t="s">
         <v>169</v>
       </c>
@@ -3085,37 +3087,37 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="2:7" ht="16.5">
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="64"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="43"/>
     </row>
     <row r="80" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B80" s="32">
+      <c r="B80" s="29">
         <v>1</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="29" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>174</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B81" s="33"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="33"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="5" t="s">
         <v>175</v>
       </c>
@@ -3125,25 +3127,25 @@
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B82" s="33"/>
-      <c r="C82" s="56"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B83" s="32">
+      <c r="B83" s="29">
         <v>2</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="29" t="s">
         <v>179</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -3153,13 +3155,13 @@
         <v>180</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B84" s="33"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="33"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="5" t="s">
         <v>181</v>
       </c>
@@ -3167,13 +3169,13 @@
         <v>182</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B85" s="33"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="52"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="5" t="s">
         <v>183</v>
       </c>
@@ -3181,12 +3183,12 @@
         <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B86" s="33"/>
-      <c r="C86" s="56"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="4" t="s">
         <v>52</v>
       </c>
@@ -3197,12 +3199,12 @@
         <v>186</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B87" s="33"/>
-      <c r="C87" s="56"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="5" t="s">
         <v>187</v>
       </c>
@@ -3213,8 +3215,8 @@
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B88" s="33"/>
-      <c r="C88" s="56"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="5" t="s">
         <v>183</v>
       </c>
@@ -3225,13 +3227,13 @@
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B89" s="32">
+      <c r="B89" s="29">
         <v>4</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="29" t="s">
         <v>191</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -3241,13 +3243,13 @@
         <v>193</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B90" s="33"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="33"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="5" t="s">
         <v>194</v>
       </c>
@@ -3255,13 +3257,13 @@
         <v>195</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B91" s="33"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="33"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="5" t="s">
         <v>196</v>
       </c>
@@ -3271,9 +3273,9 @@
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B92" s="33"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="33"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="5" t="s">
         <v>198</v>
       </c>
@@ -3283,9 +3285,9 @@
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B93" s="33"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="52"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="5" t="s">
         <v>200</v>
       </c>
@@ -3295,30 +3297,30 @@
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B94" s="33"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="32" t="s">
+      <c r="B94" s="30"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="F94" s="46"/>
+      <c r="F94" s="83"/>
       <c r="G94" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B95" s="33"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="85"/>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="2:7" s="2" customFormat="1" ht="33" outlineLevel="1">
-      <c r="B96" s="52"/>
-      <c r="C96" s="59"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="11" t="s">
         <v>123</v>
       </c>
@@ -3326,20 +3328,20 @@
         <v>204</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B97" s="32">
+      <c r="B97" s="29">
         <v>5</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="29" t="s">
         <v>206</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -3349,13 +3351,13 @@
         <v>208</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B98" s="33"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="33"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="18" t="s">
         <v>41</v>
       </c>
@@ -3363,13 +3365,13 @@
         <v>209</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B99" s="33"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="33"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="18" t="s">
         <v>50</v>
       </c>
@@ -3379,34 +3381,34 @@
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="2:7" s="2" customFormat="1" ht="132" outlineLevel="1">
-      <c r="B100" s="33"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="32" t="s">
+      <c r="B100" s="30"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="29" t="s">
         <v>211</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="2:7" s="2" customFormat="1" ht="66" outlineLevel="1">
-      <c r="B101" s="33"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G101" s="6"/>
     </row>
     <row r="102" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B102" s="32">
+      <c r="B102" s="29">
         <v>6</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="55" t="s">
         <v>212</v>
       </c>
       <c r="D102" s="19" t="s">
@@ -3419,12 +3421,12 @@
         <v>215</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B103" s="52"/>
-      <c r="C103" s="60"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="5" t="s">
         <v>216</v>
       </c>
@@ -3435,124 +3437,124 @@
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B104" s="32">
+      <c r="B104" s="29">
         <v>7</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="86" t="s">
         <v>55</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>219</v>
       </c>
       <c r="F104" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B105" s="30"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B105" s="33"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="G105" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B106" s="33"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="51"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="88"/>
       <c r="E106" s="5" t="s">
         <v>169</v>
       </c>
       <c r="F106" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B107" s="30"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B107" s="33"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="49" t="s">
+      <c r="F107" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B108" s="30"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B108" s="33"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="18" t="s">
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B109" s="30"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="E109" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B109" s="33"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="49" t="s">
+      <c r="F109" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B110" s="30"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F110" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B111" s="30"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B110" s="33"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="18" t="s">
+      <c r="F111" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B111" s="33"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="18" t="s">
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B112" s="30"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B112" s="33"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="G112" s="10"/>
     </row>
@@ -3561,93 +3563,93 @@
         <v>8</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B114" s="29">
+        <v>9</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="86" t="s">
         <v>239</v>
-      </c>
-      <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B114" s="32">
-        <v>9</v>
-      </c>
-      <c r="C114" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" s="49" t="s">
-        <v>241</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F114" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B115" s="30"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="88"/>
+      <c r="E115" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F115" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B115" s="33"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="18" t="s">
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="B116" s="30"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="86" t="s">
         <v>243</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B116" s="33"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="49" t="s">
-        <v>245</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="2:7" s="2" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="B117" s="33"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="51"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="88"/>
       <c r="E117" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F117" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" ht="16.5">
+      <c r="B118" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="43"/>
+    </row>
+    <row r="119" spans="2:7" ht="21" customHeight="1">
+      <c r="B119" s="29">
+        <v>5</v>
+      </c>
+      <c r="C119" s="44" t="s">
         <v>246</v>
-      </c>
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="2:7" ht="16.5">
-      <c r="B118" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="64"/>
-    </row>
-    <row r="119" spans="2:7" ht="21" customHeight="1">
-      <c r="B119" s="32">
-        <v>5</v>
-      </c>
-      <c r="C119" s="55" t="s">
-        <v>248</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>90</v>
@@ -3655,152 +3657,152 @@
       <c r="E119" s="18"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="21" customHeight="1">
-      <c r="B120" s="33"/>
-      <c r="C120" s="59"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="52"/>
       <c r="D120" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B121" s="30"/>
+      <c r="C121" s="21" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B121" s="33"/>
-      <c r="C121" s="21" t="s">
-        <v>251</v>
-      </c>
       <c r="D121" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B122" s="30"/>
+      <c r="C122" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B122" s="33"/>
-      <c r="C122" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B123" s="33"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="26.1" customHeight="1">
-      <c r="B124" s="65" t="s">
+      <c r="B124" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="61"/>
+    </row>
+    <row r="125" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B125" s="29">
+        <v>6</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="67"/>
-    </row>
-    <row r="125" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B125" s="32">
-        <v>6</v>
-      </c>
-      <c r="C125" s="57" t="s">
+      <c r="E125" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="F125" s="63"/>
+      <c r="G125" s="64"/>
+    </row>
+    <row r="126" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B126" s="30"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E125" s="68" t="s">
+      <c r="E126" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="F125" s="69"/>
-      <c r="G125" s="70"/>
-    </row>
-    <row r="126" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B126" s="33"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="18" t="s">
+      <c r="F126" s="63"/>
+      <c r="G126" s="64"/>
+    </row>
+    <row r="127" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B127" s="30"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E126" s="68" t="s">
+      <c r="E127" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="F126" s="69"/>
-      <c r="G126" s="70"/>
-    </row>
-    <row r="127" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B127" s="33"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="18" t="s">
+      <c r="F127" s="63"/>
+      <c r="G127" s="64"/>
+    </row>
+    <row r="128" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B128" s="30"/>
+      <c r="C128" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="E127" s="68" t="s">
+      <c r="D128" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F127" s="69"/>
-      <c r="G127" s="70"/>
-    </row>
-    <row r="128" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B128" s="33"/>
-      <c r="C128" s="57" t="s">
+      <c r="E128" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="F128" s="63"/>
+      <c r="G128" s="64"/>
+    </row>
+    <row r="129" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B129" s="30"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E128" s="68" t="s">
+      <c r="E129" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="F128" s="69"/>
-      <c r="G128" s="70"/>
-    </row>
-    <row r="129" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B129" s="33"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="19" t="s">
+      <c r="F129" s="66"/>
+      <c r="G129" s="67"/>
+    </row>
+    <row r="130" spans="2:7" ht="22.15" customHeight="1">
+      <c r="B130" s="29"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="E129" s="73" t="s">
+      <c r="E130" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="F129" s="74"/>
-      <c r="G129" s="75"/>
-    </row>
-    <row r="130" spans="2:7" ht="22.15" customHeight="1">
-      <c r="B130" s="32"/>
-      <c r="C130" s="61"/>
-      <c r="D130" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E130" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="F130" s="69"/>
-      <c r="G130" s="70"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="64"/>
     </row>
     <row r="131" spans="2:7" ht="10.15" customHeight="1">
       <c r="B131" s="22"/>
@@ -3811,59 +3813,122 @@
       <c r="G131" s="25"/>
     </row>
     <row r="132" spans="2:7" ht="30" customHeight="1">
-      <c r="B132" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C132" s="37"/>
-      <c r="D132" s="38"/>
+      <c r="B132" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="74"/>
+      <c r="D132" s="75"/>
       <c r="E132" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="27"/>
     </row>
     <row r="133" spans="2:7" ht="30" customHeight="1">
-      <c r="B133" s="39"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="41"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="78"/>
       <c r="E133" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F133" s="26" t="s">
+    </row>
+    <row r="134" spans="2:7" ht="30" customHeight="1">
+      <c r="B134" s="79"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="F134" s="32" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" ht="30" customHeight="1">
-      <c r="B134" s="42"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F134" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="G134" s="77"/>
+      <c r="G134" s="33"/>
     </row>
     <row r="146" spans="3:7" ht="27.95" customHeight="1">
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
     </row>
     <row r="147" spans="3:7" ht="27.95" customHeight="1">
-      <c r="C147" s="71"/>
-      <c r="D147" s="71"/>
-      <c r="E147" s="71"/>
-      <c r="F147" s="71"/>
-      <c r="G147" s="71"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B132:D134"/>
+    <mergeCell ref="E94:F95"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B72"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B103"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D18:D23"/>
     <mergeCell ref="F134:G134"/>
@@ -3880,73 +3945,10 @@
     <mergeCell ref="C30:C40"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C45:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B30:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B72"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B132:D134"/>
-    <mergeCell ref="E94:F95"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="D48:D51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
